--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2898.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2898.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.211593585344393</v>
+        <v>1.652441620826721</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.774739265441895</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.013420581817627</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.162654399871826</v>
       </c>
       <c r="E1">
-        <v>1.200522384348203</v>
+        <v>3.542757511138916</v>
       </c>
     </row>
   </sheetData>
